--- a/LM2ReadandList/bin/Debug/EstrategoForm_1.xlsx
+++ b/LM2ReadandList/bin/Debug/EstrategoForm_1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AMSYS\GitHub\LM2ReadandList\LM2ReadandList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C5EF4-11FC-4380-9A01-02F76B8C3F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="12915" windowHeight="7380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SGA_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estratego(SC ROBALL)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SGA_1!$A$1:$H$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Estratego(SC ROBALL)'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -20,14 +26,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>90x110紙張</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +49,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -97,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -106,23 +105,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -169,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,121 +453,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="1" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="45" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="45" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="56.1" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="56.1" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="56.1" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="56.1" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" scale="45" orientation="landscape" r:id="rId1"/>
